--- a/data/patents/PT_Data Dictionary.xlsx
+++ b/data/patents/PT_Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshk\AppData\Local\Temp\1\_PA684\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\econ899\data\patents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFED60-B3DB-42B5-BA6B-7F7BC19BB07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEDA1EF-7BF6-40FA-B0E9-107E2EC48FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PT_Abstract" sheetId="4" r:id="rId6"/>
     <sheet name="PT_Disclosure" sheetId="6" r:id="rId7"/>
     <sheet name="PT_Claim" sheetId="5" r:id="rId8"/>
-    <sheet name="PT_IPC Classification" sheetId="3" r:id="rId9"/>
+    <sheet name="PT_IPC_Classification" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PT_Interested_Party!#REF!</definedName>
@@ -1886,7 +1886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1895,83 +1895,47 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1984,9 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5635,9 +5596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5675,9 +5636,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5710,26 +5671,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5762,26 +5706,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5957,234 +5884,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.21875" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="85.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="41"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="20" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="40"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="20" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6207,10 +6134,10 @@
       <selection activeCell="B4" sqref="B4:Y88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6220,619 +6147,613 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f>A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" ref="C4:C25" si="0">A4 &amp;  " - " &amp; B4</f>
         <v xml:space="preserve">Filling Date - Date de dépôt </v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Grant Date - Date de l’octroi</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f>A6 &amp;  " - " &amp; B6</f>
         <v>Application Status Code - Code du statut de la demande</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Application Type Code - Code du type de la demande</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Application/Patent Title French - Demande/Titre français du brevet</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Application/Patent Title English - Demande/Titre anglais du brevet</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Bibliographic File Extract Date - Date d'extraction du fichier bibliographique</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Country of Publication Code - Code du pays de publication</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Document Kind Type - Genre du type de document</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Examination Request Date - Date de la demande d'examen</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Filling Country Code - Code du pays de dépôt</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Language of Filing Code - Langue du dépôt de la demande</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>License For Sale Indicator - Indicateur de la licence de vente</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PCT Application Number - Numéro de demande du TCMB</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="2" t="str">
         <f>A18 &amp;  " - " &amp; B18</f>
         <v>PCT Publication Number - Numéro de publication du TCMB</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PCT Publication Date - Date de publication du TCMB</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Parent Application Number - Numéro de la demande principale</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="2" t="str">
         <f>A21 &amp;  " - " &amp; B21</f>
         <v>PCT Article 22-39 fulfilled Date - Date d'accomplissement des articles 22 à 29 du TCMB</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PCT Section 371 Date - Date de l'article 371 du TCMB</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PCT Publication Country Code - Code du pays de publication du TCMB</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Publication Kind Type - Genre de type de publication</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Printed as Amended Country Code - Code du pays de la demande imprimée après modification</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6849,197 +6770,195 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="13" customWidth="1"/>
-    <col min="6" max="7" width="51.33203125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="51.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C8" si="0">A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number - Numéro du brevet</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Foreign Application/Patent Number - Numéro du brevet étranger / national</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Priority Claim Kind Code - Code de type de revendications de priorité</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Priority Claim Country Code - Code du pays d'origine de revendications de priorité</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Priority Claim Country - Pays d'origine de revendications de priorité</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Priority Claim Calendar Dt - Date de revendications de priorité</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7056,500 +6975,500 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="52.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="52.42578125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="19" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C16" si="0">A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Agent Type Code - Code du type d'agent</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Applicant Type Code - Code du type de demandeur</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f>A6 &amp;  " - " &amp; B6</f>
         <v>Interested Party Type Code - Code du type de partie intéressée</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="2" t="str">
         <f>A7 &amp;  " - " &amp; B7</f>
         <v>Interested Party Type - Type de partie intéressée</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="2" t="str">
         <f>A8 &amp;  " - " &amp; B8</f>
         <v>Owner Enable Date - Date d’activation par le propriétaire</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="2" t="str">
         <f>A9 &amp;  " - " &amp; B9</f>
         <v>Ownership End date - Date de désactivation par le propriétaire</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Name - Nom de la partie</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Address Line 1 - Ligne 1 de l'adresse de la partie</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Address Line 2 - Ligne 2 de l'adresse de la partie</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Address Line 3 - Ligne 3 de l'adresse de la partie</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Address Line 4 - Ligne 4 de l'adresse de la partie</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party Address Line 5 - Ligne 5 de l'adresse de la partie</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:7" ht="57.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Party City - Ville de la partie</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:7" ht="57.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="2" t="str">
         <f>A17 &amp;  " - " &amp; B17</f>
         <v>Party Province Code - Code de la province de la partie</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="2" t="str">
         <f>A18 &amp;  " - " &amp; B18</f>
         <v>Party Province - Étiquette de la province de la partie</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="2" t="str">
         <f>A19 &amp;  " - " &amp; B19</f>
         <v>Party Postal Code - Code postal de la partie</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="2" t="str">
         <f>A20 &amp;  " - " &amp; B20</f>
         <v>Party Country Code - Code du pays de la partie</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="2" t="str">
         <f>A21 &amp;  " - " &amp; B21</f>
         <v>Party Country - Pays de la partie</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7571,163 +7490,163 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f>A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number  - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f>A4 &amp;  " - " &amp; B4</f>
         <v>Language of Filing Code - Langue du type de dépôt</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f>A5 &amp;  " - " &amp; B5</f>
         <v>Abstract Language Code - Code de la langue du résumé</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f>A6 &amp;  " - " &amp; B6</f>
         <v>Abstract Text - Texte de l’abrégé</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="2" t="str">
         <f>A7 &amp;  " - " &amp; B7</f>
         <v xml:space="preserve">Abstract Text Sequence Number - Numéro de séquence du texte de l'abrégé </v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7746,143 +7665,143 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="43.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f>A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number  - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f>A4 &amp;  " - " &amp; B4</f>
         <v>Language of Filing Code - Langue du type de dépôt</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f>A5 &amp;  " - " &amp; B5</f>
         <v>Disclosure Text - Texte de la divulgation</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f>A6 &amp;  " - " &amp; B6</f>
         <v xml:space="preserve">Disclosure Text Sequence Number - Numéro de séquence du texte de la divulgation </v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7892,158 +7811,152 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f>A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number  - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f>A4 &amp;  " - " &amp; B4</f>
         <v>Language of Filing Code - Langue du type de dépôt</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f>A5 &amp;  " - " &amp; B5</f>
         <v>Claims Text - Texte des revendications</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f>A6 &amp;  " - " &amp; B6</f>
         <v>Claim Text Sequence Number - Numéro de séquence du texte des revendications</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8054,443 +7967,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C18" si="0">A3 &amp;  " - " &amp; B3</f>
         <v>Patent Number - Numéro du brevet</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Classification Sequence Number - Numéro de séquence de la classification de la CIB</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Version Date - Date de la version de la CIB</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Classification Level - Niveau de classification</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Classification Status Code - Code du statut de classification</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Classfication Status - Statut de classification</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="288" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Section Code - Code de la section de la CIB</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="288" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Section - Section de la CIB</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Class Code - Code de la classe de la CIB</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="2" t="str">
         <f>A12 &amp;  " - " &amp; B12</f>
         <v>IPC Class - Classe de la CIB</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Subclass Code - Code de la sous-classe de la CIB</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Subclass - Sous-classe de la CIB</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Main Group Code - Code du groupe principal de la CIB</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Group - Groupe de la CIB</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Subgroup Code - Code du sous-groupe de la CIB</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>IPC Subgroup - Sous-groupe de la CIB</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
